--- a/data/beta.xlsx
+++ b/data/beta.xlsx
@@ -494,7 +494,7 @@
         <v>0.34</v>
       </c>
       <c r="E3" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="F3" t="n">
         <v>0.002</v>
@@ -514,7 +514,7 @@
         <v>0.345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="F4" t="n">
         <v>-0.002</v>
@@ -545,10 +545,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.544</v>
+        <v>0.543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.283</v>
+        <v>0.282</v>
       </c>
       <c r="D6" t="n">
         <v>0.628</v>

--- a/data/beta.xlsx
+++ b/data/beta.xlsx
@@ -456,27 +456,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A2A</t>
+          <t>A2A.MI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amplifon</t>
+          <t>AMP.MI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Azimut</t>
+          <t>AGEN.VI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Banca Mediolanum</t>
+          <t>AZM.MI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Banca Monte Paschi Siena</t>
+          <t>BMED.MI</t>
         </is>
       </c>
     </row>
@@ -488,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.206</v>
+        <v>0.315605563099133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>0.659459523998653</v>
       </c>
       <c r="E3" t="n">
-        <v>0.387</v>
+        <v>0.396787909251427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002</v>
+        <v>0.400074402675908</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.288</v>
+        <v>0.453080369212648</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.345</v>
+        <v>0.491420243373458</v>
       </c>
       <c r="E4" t="n">
-        <v>0.33</v>
+        <v>0.368824537662298</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002</v>
+        <v>0.366266839605389</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.525</v>
+        <v>0.47800313737891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.373</v>
+        <v>0.248121871974714</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.758</v>
+        <v>0.5208197492597361</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002</v>
+        <v>0.558643696810978</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.543</v>
+        <v>0.587498408515791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.282</v>
+        <v>0.380397343307382</v>
       </c>
       <c r="D6" t="n">
-        <v>0.628</v>
+        <v>1.063881130766552</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005</v>
+        <v>0.837695683169517</v>
       </c>
     </row>
     <row r="7">
@@ -565,16 +565,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.006</v>
+        <v>0.5143378428405131</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.004</v>
+        <v>0.328000660858736</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.004</v>
+        <v>0.9908319773277441</v>
       </c>
       <c r="E7" t="n">
-        <v>0.027</v>
+        <v>0.727353824247678</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>

--- a/data/beta.xlsx
+++ b/data/beta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -476,7 +479,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BMED.MI</t>
+          <t>ENEL.MI</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DIA.MI</t>
         </is>
       </c>
     </row>
@@ -488,16 +496,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.315605563099133</v>
+        <v>0.324417161609821</v>
       </c>
       <c r="D3" t="n">
-        <v>0.659459523998653</v>
+        <v>0.6802557402627221</v>
       </c>
       <c r="E3" t="n">
-        <v>0.396787909251427</v>
+        <v>0.417957313801799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.400074402675908</v>
+        <v>0.6735895547268731</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.06646991745573201</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.453080369212648</v>
+        <v>0.441595205481763</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.491420243373458</v>
+        <v>0.491475221917027</v>
       </c>
       <c r="E4" t="n">
-        <v>0.368824537662298</v>
+        <v>0.366559748659947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.366266839605389</v>
+        <v>0.530633354721715</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.378993944756872</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.47800313737891</v>
+        <v>0.480292328000078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.248121871974714</v>
+        <v>0.254926235290677</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5208197492597361</v>
+        <v>0.5259947061200181</v>
       </c>
       <c r="F5" t="n">
-        <v>0.558643696810978</v>
+        <v>0.491950726293309</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.020637073145351</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.587498408515791</v>
+        <v>0.6049979858549051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.380397343307382</v>
+        <v>0.389803957780229</v>
       </c>
       <c r="D6" t="n">
-        <v>1.063881130766552</v>
+        <v>1.07837531641213</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.837695683169517</v>
+        <v>0.5598708844793181</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.101310339498658</v>
       </c>
     </row>
     <row r="7">
@@ -565,18 +585,44 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5143378428405131</v>
+        <v>0.5732866936566531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.328000660858736</v>
+        <v>0.331780252960951</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9908319773277441</v>
+        <v>0.5930136492105861</v>
       </c>
       <c r="E7" t="n">
-        <v>0.727353824247678</v>
+        <v>0.329186791661935</v>
       </c>
       <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.07039426488436501</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.08702950265009901</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.364546643742818</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.038269785799844</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.09163747909028101</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.10829343327728</v>
+      </c>
+      <c r="G8" t="n">
         <v>1</v>
       </c>
     </row>
